--- a/Crate/TC_Signup/Main.rvl.xlsx
+++ b/Crate/TC_Signup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="63">
   <si>
     <t>Flow</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>MyVar</t>
+  </si>
+  <si>
+    <t>UserEmail</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>LastResult</t>
   </si>
 </sst>
 </file>
@@ -204,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="194">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -405,11 +423,16 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -604,6 +627,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -663,215 +691,151 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="194"/>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="195"/>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="196"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="F7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="197"/>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="198"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="E10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E11" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="169" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -887,58 +851,60 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="183"/>
+      <c r="A13" s="163" t="s">
+        <v>7</v>
+      </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="165" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="167" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -947,44 +913,44 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="168" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="169" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1000,223 +966,336 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="176" t="s">
-        <v>7</v>
-      </c>
+      <c r="A18" s="183"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="51" t="s">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D24" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="56"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66" t="s">
+      <c r="E24" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F25" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G25" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="72"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="182" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="H25" s="72"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E26" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="27">
+      <c r="A27" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="80"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="88"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="96"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="97"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="104"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="105"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="112"/>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29">
-      <c r="A29" s="121"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="128"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
     </row>
     <row r="30">
-      <c r="A30" s="129"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="136"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="96"/>
     </row>
     <row r="31">
-      <c r="A31" s="137"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="144"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
     </row>
     <row r="32">
-      <c r="A32" s="145"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="152"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
     </row>
     <row r="33">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="160"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="120"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="121"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="128"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="129"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="136"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="137"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="144"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="145"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="152"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="153"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="160"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Crate/TC_Signup/Main.rvl.xlsx
+++ b/Crate/TC_Signup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="64">
   <si>
     <t>Flow</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>LastResult</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="199">
+  <borders count="200">
     <border>
       <left/>
       <right/>
@@ -428,11 +431,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -632,6 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -691,197 +696,189 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="194"/>
+      <c r="A3" s="199"/>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="195"/>
+      <c r="A4" s="194"/>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="195"/>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="196"/>
-    </row>
     <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="196"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26" t="s">
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G8" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="197"/>
-      <c r="B8" t="s">
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="197"/>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="198"/>
-    </row>
     <row r="10">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="198"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="E11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -893,18 +890,18 @@
         <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="165" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -916,34 +913,34 @@
         <v>61</v>
       </c>
       <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="17">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="168" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -966,81 +963,81 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="183"/>
+      <c r="A18" s="169" t="s">
+        <v>7</v>
+      </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="183"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="172" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="174" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1052,34 +1049,34 @@
         <v>61</v>
       </c>
       <c r="G21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="175" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="23">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="175" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
@@ -1102,200 +1099,223 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="51" t="s">
+      <c r="A24" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D25" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="56"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66" t="s">
+      <c r="E25" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="56"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="65"/>
+      <c r="B26" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F26" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G26" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="72"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="182" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="H26" s="72"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>43</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>44</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28">
+      <c r="A28" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="81"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="88"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="80"/>
     </row>
     <row r="30">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="96"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="88"/>
     </row>
     <row r="31">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="96"/>
     </row>
     <row r="32">
-      <c r="A32" s="105"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
     </row>
     <row r="33">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="120"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
     </row>
     <row r="34">
-      <c r="A34" s="121"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="128"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="120"/>
     </row>
     <row r="35">
-      <c r="A35" s="129"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="136"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
     </row>
     <row r="36">
-      <c r="A36" s="137"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="144"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="136"/>
     </row>
     <row r="37">
-      <c r="A37" s="145"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="152"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="144"/>
     </row>
     <row r="38">
-      <c r="A38" s="153"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="160"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="152"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="153"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="160"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Crate/TC_Signup/Main.rvl.xlsx
+++ b/Crate/TC_Signup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="65">
   <si>
     <t>Flow</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
   </si>
 </sst>
 </file>
@@ -225,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="200">
+  <borders count="203">
     <border>
       <left/>
       <right/>
@@ -432,11 +435,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -637,6 +643,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H42"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -700,321 +709,308 @@
       <c r="B3" t="s">
         <v>57</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" t="s">
         <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="194"/>
+      <c r="A4" s="200"/>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="195"/>
+      <c r="A5" s="194"/>
       <c r="B5" t="s">
         <v>57</v>
       </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="201"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="195"/>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="202"/>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="196"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19" t="s">
+    <row r="9">
+      <c r="A9" s="196"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G11" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="197"/>
-      <c r="B9" t="s">
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="197"/>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="198"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="35" t="s">
+    <row r="13">
+      <c r="A13" s="198"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D14" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="E14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E15" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="165" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="18">
+      <c r="A18" s="165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F18" t="s">
         <v>61</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="167" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="19">
+      <c r="A19" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="20">
+      <c r="A20" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="169" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="183"/>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1030,60 +1026,58 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="169" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="174" t="s">
-        <v>7</v>
-      </c>
+      <c r="A22" s="183"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="170" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -1099,223 +1093,292 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="172" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="51" t="s">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D28" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="56"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66" t="s">
+      <c r="E28" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="56"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="65"/>
+      <c r="B29" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69" t="s">
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F29" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="G29" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="72"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="182" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="H29" s="72"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>42</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F30" t="s">
         <v>44</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="180" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="31">
+      <c r="A31" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="73"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="80"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="88"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
     </row>
     <row r="33">
-      <c r="A33" s="105"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
     </row>
     <row r="34">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="120"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="96"/>
     </row>
     <row r="35">
-      <c r="A35" s="121"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="128"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36">
-      <c r="A36" s="129"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="136"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="112"/>
     </row>
     <row r="37">
-      <c r="A37" s="137"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="144"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="120"/>
     </row>
     <row r="38">
-      <c r="A38" s="145"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="152"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="128"/>
     </row>
     <row r="39">
-      <c r="A39" s="153"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="160"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="136"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="137"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="144"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="145"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="152"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="153"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="159"/>
+      <c r="H42" s="160"/>
     </row>
   </sheetData>
 </worksheet>
